--- a/tables/mnist_3.xlsx
+++ b/tables/mnist_3.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,66 +455,66 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>BAARD2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>BAARD3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>LID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>magnet</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
@@ -531,6 +531,11 @@
           <t>Epsilon</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy after attack</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -541,8 +546,8 @@
       <c r="B4" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="C4" t="n">
-        <v>100</v>
+      <c r="C4" s="1" t="n">
+        <v>80.80000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>100</v>
@@ -551,12 +556,15 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
         <v>80.80000000000001</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>81.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -565,22 +573,25 @@
       <c r="B5" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C5" t="n">
-        <v>100</v>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>100</v>
       </c>
       <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
         <v>84.39999999999999</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>43.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -589,22 +600,25 @@
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>100</v>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
       </c>
       <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>71.3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -613,22 +627,25 @@
       <c r="B7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C7" t="n">
-        <v>100</v>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
       </c>
       <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
         <v>84.7</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>74.8</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1.2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -641,7 +658,7 @@
       <c r="B8" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D8" t="n">
@@ -657,6 +674,9 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -665,14 +685,14 @@
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>100</v>
+      <c r="C9" s="1" t="n">
+        <v>99.7</v>
       </c>
       <c r="D9" t="n">
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>99.7</v>
@@ -681,6 +701,9 @@
         <v>99.7</v>
       </c>
       <c r="H9" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I9" t="n">
         <v>99.7</v>
       </c>
     </row>
@@ -689,8 +712,8 @@
       <c r="B10" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C10" t="n">
-        <v>100</v>
+      <c r="C10" s="1" t="n">
+        <v>99.3</v>
       </c>
       <c r="D10" t="n">
         <v>100</v>
@@ -699,12 +722,15 @@
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>99.3</v>
       </c>
       <c r="H10" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="I10" t="n">
         <v>99.3</v>
       </c>
     </row>
@@ -713,20 +739,23 @@
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
-        <v>100</v>
+      <c r="C11" s="1" t="n">
+        <v>99.09999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="H11" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I11" t="n">
         <v>99.09999999999999</v>
       </c>
     </row>
@@ -735,20 +764,23 @@
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>100</v>
+      <c r="C12" s="1" t="n">
+        <v>98.40000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>100</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>98.5</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>98.40000000000001</v>
       </c>
     </row>
@@ -757,20 +789,23 @@
       <c r="B13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
-        <v>100</v>
+      <c r="C13" s="1" t="n">
+        <v>96.40000000000001</v>
       </c>
       <c r="D13" t="n">
         <v>100</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>96.7</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>96.40000000000001</v>
       </c>
     </row>
@@ -783,8 +818,8 @@
       <c r="B14" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="C14" t="n">
-        <v>100</v>
+      <c r="C14" s="1" t="n">
+        <v>99.7</v>
       </c>
       <c r="D14" t="n">
         <v>100</v>
@@ -793,12 +828,15 @@
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
         <v>99.7</v>
       </c>
       <c r="H14" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I14" t="n">
         <v>99.7</v>
       </c>
     </row>
@@ -807,8 +845,8 @@
       <c r="B15" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C15" t="n">
-        <v>100</v>
+      <c r="C15" s="1" t="n">
+        <v>97.59999999999999</v>
       </c>
       <c r="D15" t="n">
         <v>100</v>
@@ -817,12 +855,15 @@
         <v>100</v>
       </c>
       <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>97.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>97.59999999999999</v>
       </c>
     </row>
@@ -831,8 +872,8 @@
       <c r="B16" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C16" t="n">
-        <v>100</v>
+      <c r="C16" s="1" t="n">
+        <v>91.59999999999999</v>
       </c>
       <c r="D16" t="n">
         <v>100</v>
@@ -841,12 +882,15 @@
         <v>100</v>
       </c>
       <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
         <v>91.59999999999999</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>91.7</v>
       </c>
     </row>
@@ -855,8 +899,8 @@
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>100</v>
+      <c r="C17" s="1" t="n">
+        <v>69.39999999999999</v>
       </c>
       <c r="D17" t="n">
         <v>100</v>
@@ -865,12 +909,15 @@
         <v>100</v>
       </c>
       <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
         <v>69.89999999999999</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>72</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>89.60000000000001</v>
       </c>
     </row>
@@ -879,8 +926,8 @@
       <c r="B18" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C18" t="n">
-        <v>100</v>
+      <c r="C18" s="1" t="n">
+        <v>30.3</v>
       </c>
       <c r="D18" t="n">
         <v>100</v>
@@ -889,12 +936,15 @@
         <v>100</v>
       </c>
       <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
         <v>44.1</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>32.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>96.2</v>
       </c>
     </row>
@@ -903,20 +953,23 @@
       <c r="B19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C19" t="n">
-        <v>100</v>
+      <c r="C19" s="1" t="n">
+        <v>10.2</v>
       </c>
       <c r="D19" t="n">
         <v>100</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
         <v>31.3</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>11.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>99</v>
       </c>
     </row>
@@ -925,20 +978,23 @@
       <c r="B20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
-        <v>100</v>
+      <c r="C20" s="1" t="n">
+        <v>2.3</v>
       </c>
       <c r="D20" t="n">
         <v>100</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
         <v>17.7</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>99.8</v>
       </c>
     </row>
@@ -947,20 +1003,23 @@
       <c r="B21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
-        <v>100</v>
+      <c r="C21" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="D21" t="n">
         <v>100</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
         <v>44.1</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1.9</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -973,8 +1032,8 @@
       <c r="B22" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C22" t="n">
-        <v>100</v>
+      <c r="C22" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="D22" t="n">
         <v>100</v>
@@ -983,12 +1042,15 @@
         <v>100</v>
       </c>
       <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
         <v>64.7</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>29.4</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>99.5</v>
       </c>
     </row>
@@ -1001,8 +1063,8 @@
       <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>100</v>
+      <c r="C23" s="1" t="n">
+        <v>3.5</v>
       </c>
       <c r="D23" t="n">
         <v>100</v>
@@ -1011,12 +1073,15 @@
         <v>100</v>
       </c>
       <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
         <v>25</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>14.9</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>72.59999999999999</v>
       </c>
     </row>
@@ -1025,8 +1090,8 @@
       <c r="B24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
-        <v>100</v>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>100</v>
@@ -1035,12 +1100,15 @@
         <v>100</v>
       </c>
       <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
         <v>28.6</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>3.3</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>90.59999999999999</v>
       </c>
     </row>
@@ -1049,8 +1117,8 @@
       <c r="B25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
-        <v>100</v>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>100</v>
@@ -1059,12 +1127,15 @@
         <v>100</v>
       </c>
       <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
         <v>28.7</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>3.1</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>97</v>
       </c>
     </row>
@@ -1077,22 +1148,25 @@
       <c r="B26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>100</v>
+      <c r="C26" s="1" t="n">
+        <v>33.1</v>
       </c>
       <c r="D26" t="n">
         <v>100</v>
       </c>
       <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>48</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>34.4</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1101,22 +1175,25 @@
       <c r="B27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C27" t="n">
-        <v>100</v>
+      <c r="C27" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="D27" t="n">
         <v>100</v>
       </c>
       <c r="E27" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>65.2</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>60.9</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>69.89999999999999</v>
       </c>
     </row>
@@ -1129,22 +1206,25 @@
       <c r="B28" s="1" t="n">
         <v>1e-06</v>
       </c>
-      <c r="C28" t="n">
-        <v>100</v>
+      <c r="C28" s="1" t="n">
+        <v>1.6</v>
       </c>
       <c r="D28" t="n">
         <v>100</v>
       </c>
       <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
         <v>91.8</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>59.7</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>3.3</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>97.2</v>
       </c>
     </row>
@@ -1157,8 +1237,8 @@
       <c r="B29" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="C29" t="n">
-        <v>100</v>
+      <c r="C29" s="1" t="n">
+        <v>84.2</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
@@ -1167,12 +1247,15 @@
         <v>100</v>
       </c>
       <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>84.39999999999999</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1181,22 +1264,25 @@
       <c r="B30" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C30" t="n">
-        <v>100</v>
+      <c r="C30" s="1" t="n">
+        <v>6.9</v>
       </c>
       <c r="D30" t="n">
         <v>100</v>
       </c>
       <c r="E30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>64.8</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>8.6</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1205,22 +1291,25 @@
       <c r="B31" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C31" t="n">
-        <v>100</v>
+      <c r="C31" s="1" t="n">
+        <v>0.8</v>
       </c>
       <c r="D31" t="n">
         <v>100</v>
       </c>
       <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
         <v>91.59999999999999</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>58.6</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>2.8</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1229,22 +1318,25 @@
       <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="n">
-        <v>100</v>
+      <c r="C32" s="1" t="n">
+        <v>0.4</v>
       </c>
       <c r="D32" t="n">
         <v>100</v>
       </c>
       <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
         <v>84</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>57.4</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>2.3</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1253,22 +1345,25 @@
       <c r="B33" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C33" t="n">
-        <v>100</v>
+      <c r="C33" s="1" t="n">
+        <v>0.4</v>
       </c>
       <c r="D33" t="n">
         <v>100</v>
       </c>
       <c r="E33" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>61.5</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>2.3</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1281,20 +1376,23 @@
       <c r="B34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
+      <c r="C34" s="1" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
         <v>99.7</v>
       </c>
-      <c r="E34" t="n">
-        <v>100</v>
-      </c>
       <c r="F34" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="H34" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I34" t="n">
         <v>99.59999999999999</v>
       </c>
     </row>
@@ -1303,20 +1401,23 @@
       <c r="B35" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="C35" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
         <v>99.8</v>
       </c>
-      <c r="E35" t="n">
-        <v>100</v>
-      </c>
       <c r="F35" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
         <v>99</v>
       </c>
       <c r="H35" t="n">
+        <v>99</v>
+      </c>
+      <c r="I35" t="n">
         <v>99.09999999999999</v>
       </c>
     </row>
@@ -1325,20 +1426,23 @@
       <c r="B36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
-        <v>100</v>
-      </c>
+      <c r="C36" s="1" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>100</v>
       </c>
       <c r="F36" t="n">
+        <v>100</v>
+      </c>
+      <c r="G36" t="n">
         <v>96.8</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>98.59999999999999</v>
       </c>
     </row>
@@ -1351,8 +1455,8 @@
       <c r="B37" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C37" t="n">
-        <v>100</v>
+      <c r="C37" s="1" t="n">
+        <v>99.8</v>
       </c>
       <c r="D37" t="n">
         <v>100</v>
@@ -1361,12 +1465,15 @@
         <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
         <v>99.8</v>
       </c>
       <c r="H37" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I37" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1379,22 +1486,25 @@
       <c r="B38" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="1" t="n">
         <v>99.8</v>
       </c>
       <c r="D38" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E38" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E38" t="n">
-        <v>100</v>
-      </c>
       <c r="F38" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
         <v>99.8</v>
       </c>
       <c r="H38" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I38" t="n">
         <v>99.8</v>
       </c>
     </row>
@@ -1403,22 +1513,25 @@
       <c r="B39" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="1" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D39" t="n">
         <v>98.7</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>99.2</v>
       </c>
-      <c r="E39" t="n">
-        <v>100</v>
-      </c>
       <c r="F39" t="n">
+        <v>100</v>
+      </c>
+      <c r="G39" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>98.5</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>98.5</v>
       </c>
     </row>
@@ -1427,22 +1540,25 @@
       <c r="B40" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="1" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="D40" t="n">
         <v>95.3</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>96.3</v>
       </c>
-      <c r="E40" t="n">
-        <v>100</v>
-      </c>
       <c r="F40" t="n">
-        <v>93.7</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
         <v>93.7</v>
       </c>
       <c r="H40" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="I40" t="n">
         <v>93.7</v>
       </c>
     </row>
@@ -1451,22 +1567,25 @@
       <c r="B41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="D41" t="n">
         <v>84.3</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>74.5</v>
       </c>
     </row>

--- a/tables/mnist_3.xlsx
+++ b/tables/mnist_3.xlsx
@@ -600,7 +600,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F4" t="n">
         <v>80.80000000000003</v>
@@ -609,7 +609,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>6.2</v>
@@ -618,7 +618,7 @@
         <v>9.5</v>
       </c>
       <c r="K4" t="n">
-        <v>74.7</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>84.39999999999998</v>
+        <v>92</v>
       </c>
       <c r="F5" t="n">
         <v>43.1</v>
@@ -660,7 +660,7 @@
         <v>9.5</v>
       </c>
       <c r="K5" t="n">
-        <v>79</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>4.9</v>
@@ -669,7 +669,7 @@
         <v>0.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +684,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>85.09999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>71.3</v>
@@ -702,7 +702,7 @@
         <v>9.5</v>
       </c>
       <c r="K6" t="n">
-        <v>20.3</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>0.4</v>
@@ -711,7 +711,7 @@
         <v>0.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
@@ -726,7 +726,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>84.7</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>74.8</v>
@@ -744,7 +744,7 @@
         <v>9.5</v>
       </c>
       <c r="K7" t="n">
-        <v>18.6</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
         <v>0.6</v>
@@ -753,7 +753,7 @@
         <v>0.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -781,7 +781,7 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>98.5</v>
       </c>
       <c r="I8" t="n">
         <v>6.2</v>
@@ -790,7 +790,7 @@
         <v>9.5</v>
       </c>
       <c r="K8" t="n">
-        <v>79.60000000000002</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -814,7 +814,7 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>99.7</v>
@@ -823,7 +823,7 @@
         <v>99.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.5</v>
       </c>
       <c r="I9" t="n">
         <v>6.2</v>
@@ -832,7 +832,7 @@
         <v>9.5</v>
       </c>
       <c r="K9" t="n">
-        <v>18.1</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
@@ -865,7 +865,7 @@
         <v>99.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="I10" t="n">
         <v>6.2</v>
@@ -874,7 +874,7 @@
         <v>9.5</v>
       </c>
       <c r="K10" t="n">
-        <v>80</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
@@ -897,7 +897,9 @@
       <c r="D11" t="n">
         <v>100</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
       <c r="F11" t="n">
         <v>99.09999999999999</v>
       </c>
@@ -905,7 +907,7 @@
         <v>99.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="I11" t="n">
         <v>6.2</v>
@@ -913,7 +915,9 @@
       <c r="J11" t="n">
         <v>9.5</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>4.8</v>
+      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -921,7 +925,7 @@
         <v>0.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -935,7 +939,9 @@
       <c r="D12" t="n">
         <v>100</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
       <c r="F12" t="n">
         <v>98.40000000000001</v>
       </c>
@@ -943,7 +949,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="I12" t="n">
         <v>6.2</v>
@@ -951,7 +957,9 @@
       <c r="J12" t="n">
         <v>9.5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>4.8</v>
+      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
@@ -959,7 +967,7 @@
         <v>0.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +981,9 @@
       <c r="D13" t="n">
         <v>100</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>99.90000000000001</v>
+      </c>
       <c r="F13" t="n">
         <v>96.40000000000001</v>
       </c>
@@ -981,7 +991,7 @@
         <v>98.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>97.3</v>
       </c>
       <c r="I13" t="n">
         <v>6.2</v>
@@ -989,7 +999,9 @@
       <c r="J13" t="n">
         <v>9.5</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>4.8</v>
+      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>0.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
@@ -1025,7 +1037,7 @@
         <v>99.8</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>98.5</v>
       </c>
       <c r="I14" t="n">
         <v>6.2</v>
@@ -1034,7 +1046,7 @@
         <v>9.5</v>
       </c>
       <c r="K14" t="n">
-        <v>79.90000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1043,7 +1055,7 @@
         <v>0.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -1067,7 +1079,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.8</v>
       </c>
       <c r="I15" t="n">
         <v>6.2</v>
@@ -1076,7 +1088,7 @@
         <v>9.5</v>
       </c>
       <c r="K15" t="n">
-        <v>74.59999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1085,7 +1097,7 @@
         <v>0.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1112,7 @@
         <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F16" t="n">
         <v>91.59999999999999</v>
@@ -1109,7 +1121,7 @@
         <v>97.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="I16" t="n">
         <v>6.2</v>
@@ -1118,7 +1130,7 @@
         <v>9.5</v>
       </c>
       <c r="K16" t="n">
-        <v>72.5</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1127,7 +1139,7 @@
         <v>0.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
@@ -1142,7 +1154,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="F17" t="n">
         <v>69.89999999999999</v>
@@ -1151,7 +1163,7 @@
         <v>96.3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>6.2</v>
@@ -1160,7 +1172,7 @@
         <v>9.5</v>
       </c>
       <c r="K17" t="n">
-        <v>72.3</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>0.6</v>
@@ -1169,7 +1181,7 @@
         <v>0.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
@@ -1184,7 +1196,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F18" t="n">
         <v>44.1</v>
@@ -1193,7 +1205,7 @@
         <v>98.3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="I18" t="n">
         <v>6.2</v>
@@ -1202,7 +1214,7 @@
         <v>9.5</v>
       </c>
       <c r="K18" t="n">
-        <v>72.3</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
         <v>5.800000000000002</v>
@@ -1211,7 +1223,7 @@
         <v>0.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19">
@@ -1225,7 +1237,9 @@
       <c r="D19" t="n">
         <v>100</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>95</v>
+      </c>
       <c r="F19" t="n">
         <v>31.3</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>99</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="I19" t="n">
         <v>6.2</v>
@@ -1241,7 +1255,9 @@
       <c r="J19" t="n">
         <v>9.5</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>4.8</v>
+      </c>
       <c r="L19" t="n">
         <v>7.199999999999998</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>0.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
@@ -1263,7 +1279,9 @@
       <c r="D20" t="n">
         <v>100</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>62.2</v>
+      </c>
       <c r="F20" t="n">
         <v>17.7</v>
       </c>
@@ -1271,7 +1289,7 @@
         <v>99.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
         <v>6.2</v>
@@ -1279,7 +1297,9 @@
       <c r="J20" t="n">
         <v>9.5</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="L20" t="n">
         <v>7.1</v>
       </c>
@@ -1287,7 +1307,7 @@
         <v>0.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21">
@@ -1301,7 +1321,9 @@
       <c r="D21" t="n">
         <v>100</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>5.800000000000002</v>
+      </c>
       <c r="F21" t="n">
         <v>44.1</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I21" t="n">
         <v>6.2</v>
@@ -1317,7 +1339,9 @@
       <c r="J21" t="n">
         <v>9.5</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>4.8</v>
+      </c>
       <c r="L21" t="n">
         <v>10.9</v>
       </c>
@@ -1325,7 +1349,7 @@
         <v>0.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22">
@@ -1353,7 +1377,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="I22" t="n">
         <v>6.2</v>
@@ -1362,7 +1386,7 @@
         <v>9.5</v>
       </c>
       <c r="K22" t="n">
-        <v>72</v>
+        <v>4.8</v>
       </c>
       <c r="L22" t="n">
         <v>8.4</v>
@@ -1371,7 +1395,7 @@
         <v>0.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
@@ -1387,7 +1411,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
@@ -1399,16 +1423,16 @@
         <v>99.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>82.69999999999997</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
       </c>
       <c r="J23" t="n">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="K23" t="n">
-        <v>72.09999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
         <v>8.1</v>
@@ -1417,7 +1441,7 @@
         <v>0.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
@@ -1432,7 +1456,7 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F24" t="n">
         <v>28.6</v>
@@ -1441,7 +1465,7 @@
         <v>93.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="I24" t="n">
         <v>6.2</v>
@@ -1450,7 +1474,7 @@
         <v>9.5</v>
       </c>
       <c r="K24" t="n">
-        <v>72.2</v>
+        <v>4.8</v>
       </c>
       <c r="L24" t="n">
         <v>7.6</v>
@@ -1459,7 +1483,7 @@
         <v>0.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25">
@@ -1474,7 +1498,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>100</v>
+        <v>94.2</v>
       </c>
       <c r="F25" t="n">
         <v>28.7</v>
@@ -1492,7 +1516,7 @@
         <v>9.5</v>
       </c>
       <c r="K25" t="n">
-        <v>72.09999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L25" t="n">
         <v>7.7</v>
@@ -1501,7 +1525,7 @@
         <v>0.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -1529,7 +1553,7 @@
         <v>75.7</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="I26" t="n">
         <v>6.2</v>
@@ -1538,7 +1562,7 @@
         <v>9.5</v>
       </c>
       <c r="K26" t="n">
-        <v>72.09999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L26" t="n">
         <v>5.1</v>
@@ -1547,7 +1571,7 @@
         <v>0.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27">
@@ -1562,7 +1586,7 @@
         <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>99.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F27" t="n">
         <v>65.2</v>
@@ -1571,7 +1595,7 @@
         <v>69.89999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="I27" t="n">
         <v>6.2</v>
@@ -1580,7 +1604,7 @@
         <v>9.5</v>
       </c>
       <c r="K27" t="n">
-        <v>72.09999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L27" t="n">
         <v>3.1</v>
@@ -1589,7 +1613,7 @@
         <v>0.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28">
@@ -1608,7 +1632,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>91.8</v>
+        <v>56.3</v>
       </c>
       <c r="F28" t="n">
         <v>59.7</v>
@@ -1617,7 +1641,7 @@
         <v>98.59999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
         <v>6.2</v>
@@ -1626,7 +1650,7 @@
         <v>9.5</v>
       </c>
       <c r="K28" t="n">
-        <v>72.09999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L28" t="n">
         <v>1.5</v>
@@ -1635,7 +1659,7 @@
         <v>0.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29">
@@ -1654,7 +1678,7 @@
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="F29" t="n">
         <v>88.40000000000001</v>
@@ -1663,7 +1687,7 @@
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>85.3</v>
       </c>
       <c r="I29" t="n">
         <v>6.2</v>
@@ -1672,7 +1696,7 @@
         <v>9.5</v>
       </c>
       <c r="K29" t="n">
-        <v>72.2</v>
+        <v>4.8</v>
       </c>
       <c r="L29" t="n">
         <v>3.8</v>
@@ -1681,7 +1705,7 @@
         <v>0.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
@@ -1696,7 +1720,7 @@
         <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>97.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="F30" t="n">
         <v>64.8</v>
@@ -1705,7 +1729,7 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="I30" t="n">
         <v>6.2</v>
@@ -1714,7 +1738,7 @@
         <v>9.5</v>
       </c>
       <c r="K30" t="n">
-        <v>72.09999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L30" t="n">
         <v>3</v>
@@ -1723,7 +1747,7 @@
         <v>0.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31">
@@ -1738,7 +1762,7 @@
         <v>100</v>
       </c>
       <c r="E31" t="n">
-        <v>91.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F31" t="n">
         <v>58.6</v>
@@ -1747,7 +1771,7 @@
         <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="I31" t="n">
         <v>6.2</v>
@@ -1756,7 +1780,7 @@
         <v>9.5</v>
       </c>
       <c r="K31" t="n">
-        <v>72.5</v>
+        <v>4.8</v>
       </c>
       <c r="L31" t="n">
         <v>0.2</v>
@@ -1765,7 +1789,7 @@
         <v>0.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32">
@@ -1780,7 +1804,7 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>84</v>
+        <v>47.1</v>
       </c>
       <c r="F32" t="n">
         <v>57.4</v>
@@ -1789,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="I32" t="n">
         <v>6.2</v>
@@ -1798,7 +1822,7 @@
         <v>9.5</v>
       </c>
       <c r="K32" t="n">
-        <v>72.09999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L32" t="n">
         <v>0.3</v>
@@ -1807,7 +1831,7 @@
         <v>0.2</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33">
@@ -1822,7 +1846,7 @@
         <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>84.09999999999999</v>
+        <v>47.1</v>
       </c>
       <c r="F33" t="n">
         <v>61.5</v>
@@ -1831,7 +1855,7 @@
         <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="I33" t="n">
         <v>6.2</v>
@@ -1840,7 +1864,7 @@
         <v>9.5</v>
       </c>
       <c r="K33" t="n">
-        <v>72.09999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L33" t="n">
         <v>0.4</v>
@@ -1849,7 +1873,7 @@
         <v>0.2</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="34">
@@ -1875,14 +1899,14 @@
         <v>99.3</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>97.3</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>9.5</v>
       </c>
       <c r="K34" t="n">
-        <v>74.90000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -1891,7 +1915,7 @@
         <v>0.2</v>
       </c>
       <c r="N34" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="35">
@@ -1913,14 +1937,14 @@
         <v>99.59999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>9.5</v>
       </c>
       <c r="K35" t="n">
-        <v>79.5</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -1929,7 +1953,7 @@
         <v>0.2</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36">
@@ -1942,7 +1966,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F36" t="n">
         <v>96.8</v>
@@ -1951,14 +1975,14 @@
         <v>98.40000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>9.5</v>
       </c>
       <c r="K36" t="n">
-        <v>79.2</v>
+        <v>4.8</v>
       </c>
       <c r="L36" t="n">
         <v>0.1</v>
@@ -1967,7 +1991,7 @@
         <v>0.2</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37">
@@ -1995,7 +2019,7 @@
         <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="I37" t="n">
         <v>6.2</v>
@@ -2004,7 +2028,7 @@
         <v>9.5</v>
       </c>
       <c r="K37" t="n">
-        <v>72.3</v>
+        <v>4.8</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2013,7 +2037,7 @@
         <v>0.2</v>
       </c>
       <c r="N37" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38">
@@ -2041,7 +2065,7 @@
         <v>99.8</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>98.5</v>
       </c>
       <c r="I38" t="n">
         <v>6.2</v>
@@ -2050,7 +2074,7 @@
         <v>9.5</v>
       </c>
       <c r="K38" t="n">
-        <v>79.5</v>
+        <v>4.8</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2059,7 +2083,7 @@
         <v>0.2</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39">
@@ -2083,7 +2107,7 @@
         <v>99</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I39" t="n">
         <v>6.2</v>
@@ -2092,7 +2116,7 @@
         <v>9.5</v>
       </c>
       <c r="K39" t="n">
-        <v>72.2</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2101,7 +2125,7 @@
         <v>0.2</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="40">
@@ -2116,7 +2140,7 @@
         <v>96.3</v>
       </c>
       <c r="E40" t="n">
-        <v>100</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F40" t="n">
         <v>93.7</v>
@@ -2125,7 +2149,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>91.7</v>
       </c>
       <c r="I40" t="n">
         <v>6.2</v>
@@ -2134,7 +2158,7 @@
         <v>9.5</v>
       </c>
       <c r="K40" t="n">
-        <v>72.2</v>
+        <v>4.8</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2143,7 +2167,7 @@
         <v>0.2</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41">
@@ -2158,7 +2182,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>99.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="F41" t="n">
         <v>75.09999999999999</v>
@@ -2167,7 +2191,7 @@
         <v>73.3</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>73.2</v>
       </c>
       <c r="I41" t="n">
         <v>6.2</v>
@@ -2176,7 +2200,7 @@
         <v>9.5</v>
       </c>
       <c r="K41" t="n">
-        <v>72</v>
+        <v>4.8</v>
       </c>
       <c r="L41" t="n">
         <v>1.2</v>
@@ -2185,7 +2209,7 @@
         <v>0.2</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/tables/mnist_3.xlsx
+++ b/tables/mnist_3.xlsx
@@ -1411,7 +1411,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>92.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
@@ -1429,7 +1429,7 @@
         <v>6.2</v>
       </c>
       <c r="J23" t="n">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="K23" t="n">
         <v>4.8</v>
